--- a/biology/Médecine/Lise_Enjalbert/Lise_Enjalbert.xlsx
+++ b/biology/Médecine/Lise_Enjalbert/Lise_Enjalbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lise Enjalbert, née le 1er juillet 1916 à Tiaret et morte le 22 mars 2015 à Toulouse[1], est une professeure de virologie, peintre et historienne française, première femme nommée mainteneur de l'Académie des Jeux floraux.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lise Enjalbert, née le 1er juillet 1916 à Tiaret et morte le 22 mars 2015 à Toulouse, est une professeure de virologie, peintre et historienne française, première femme nommée mainteneur de l'Académie des Jeux floraux.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeure de virologie à la faculté de médecine de Toulouse, Lise Enjalbert s'est intéressée à l'histoire des hôpitaux de Toulouse, auxquels elle a consacré deux ouvrages.
 Après sa retraite, elle a contribué à la restauration de l'Hôtel-Dieu Saint-Jacques, par l'intermédiaire de l’« Association des amis de l'Hôtel-Dieu et de La Grave », dont elle est cofondatrice (1985).
 L'Hôtel-Dieu Saint-Jacques a été classé patrimoine mondial de l'UNESCO en 1998, dans le cadre plus large du Chemin de Saint-Jacques de Compostelle.
 Première femme présidente de l'Académie des sciences, inscriptions et belles-lettres de Toulouse, Lise Enjalbert est aussi la première femme à avoir été nommée Mainteneur des Jeux floraux, en 2005.
-Lise Enjalbert est décédée le 22 mars 2015 à l'âge de 98 ans[2].
+Lise Enjalbert est décédée le 22 mars 2015 à l'âge de 98 ans.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Un château dans Toulouse, « Les Verrières », Académie des sciences, inscriptions et belles-lettres de Toulouse, 1988
 L'Hôpital Saint-Jacques de Toulouse, 1989
